--- a/artfynd/A 63628-2020.xlsx
+++ b/artfynd/A 63628-2020.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AY51"/>
+  <dimension ref="A1:AY58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6427,6 +6427,823 @@
       </c>
       <c r="AY51" t="inlineStr"/>
     </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>112111378</v>
+      </c>
+      <c r="B52" t="n">
+        <v>82949</v>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E52" t="n">
+        <v>5589</v>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>Rödbrun klubbdyna</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>Trichoderma nybergianum</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>(T.Ulvinen &amp; H.L.Chamb.) Jaklitsch &amp; Voglmayr</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr"/>
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="inlineStr"/>
+      <c r="N52" t="inlineStr"/>
+      <c r="P52" t="inlineStr">
+        <is>
+          <t>Renkullmyren (Renkullmyren), Jmt</t>
+        </is>
+      </c>
+      <c r="Q52" t="n">
+        <v>446759.6540099295</v>
+      </c>
+      <c r="R52" t="n">
+        <v>7032715.24812395</v>
+      </c>
+      <c r="S52" t="n">
+        <v>10</v>
+      </c>
+      <c r="T52" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="U52" t="inlineStr">
+        <is>
+          <t>Krokom</t>
+        </is>
+      </c>
+      <c r="V52" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="W52" t="inlineStr">
+        <is>
+          <t>Alsen</t>
+        </is>
+      </c>
+      <c r="Y52" t="inlineStr">
+        <is>
+          <t>2023-09-15</t>
+        </is>
+      </c>
+      <c r="Z52" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA52" t="inlineStr">
+        <is>
+          <t>2023-09-15</t>
+        </is>
+      </c>
+      <c r="AB52" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD52" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE52" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF52" t="inlineStr"/>
+      <c r="AG52" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT52" t="inlineStr"/>
+      <c r="AW52" t="inlineStr">
+        <is>
+          <t>Rashid Kadhim</t>
+        </is>
+      </c>
+      <c r="AX52" t="inlineStr">
+        <is>
+          <t>Rashid Kadhim</t>
+        </is>
+      </c>
+      <c r="AY52" t="inlineStr"/>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>112111398</v>
+      </c>
+      <c r="B53" t="n">
+        <v>88966</v>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E53" t="n">
+        <v>5754</v>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>Gultoppig fingersvamp</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>Ramaria testaceoflava</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>(Bres.) Corner</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr"/>
+      <c r="J53" t="inlineStr"/>
+      <c r="K53" t="inlineStr"/>
+      <c r="N53" t="inlineStr"/>
+      <c r="P53" t="inlineStr">
+        <is>
+          <t>Renkullmyren (Renkullmyren), Jmt</t>
+        </is>
+      </c>
+      <c r="Q53" t="n">
+        <v>446739.7436773395</v>
+      </c>
+      <c r="R53" t="n">
+        <v>7032704.828598888</v>
+      </c>
+      <c r="S53" t="n">
+        <v>10</v>
+      </c>
+      <c r="T53" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="U53" t="inlineStr">
+        <is>
+          <t>Krokom</t>
+        </is>
+      </c>
+      <c r="V53" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="W53" t="inlineStr">
+        <is>
+          <t>Alsen</t>
+        </is>
+      </c>
+      <c r="Y53" t="inlineStr">
+        <is>
+          <t>2023-09-15</t>
+        </is>
+      </c>
+      <c r="Z53" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA53" t="inlineStr">
+        <is>
+          <t>2023-09-15</t>
+        </is>
+      </c>
+      <c r="AB53" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD53" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE53" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF53" t="inlineStr"/>
+      <c r="AG53" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT53" t="inlineStr"/>
+      <c r="AW53" t="inlineStr">
+        <is>
+          <t>Rashid Kadhim</t>
+        </is>
+      </c>
+      <c r="AX53" t="inlineStr">
+        <is>
+          <t>Rashid Kadhim</t>
+        </is>
+      </c>
+      <c r="AY53" t="inlineStr"/>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>112110532</v>
+      </c>
+      <c r="B54" t="n">
+        <v>88002</v>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>VU</t>
+        </is>
+      </c>
+      <c r="E54" t="n">
+        <v>245031</v>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>Borgsjömusseron</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>Tricholoma borgsjoeënse</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>Jacobsson &amp; Muskos</t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr"/>
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="inlineStr"/>
+      <c r="N54" t="inlineStr"/>
+      <c r="P54" t="inlineStr">
+        <is>
+          <t>Svensbergsbäcken (Svensbergsbäcken), Jmt</t>
+        </is>
+      </c>
+      <c r="Q54" t="n">
+        <v>446764.8121887931</v>
+      </c>
+      <c r="R54" t="n">
+        <v>7032863.433365297</v>
+      </c>
+      <c r="S54" t="n">
+        <v>10</v>
+      </c>
+      <c r="T54" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="U54" t="inlineStr">
+        <is>
+          <t>Krokom</t>
+        </is>
+      </c>
+      <c r="V54" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="W54" t="inlineStr">
+        <is>
+          <t>Alsen</t>
+        </is>
+      </c>
+      <c r="Y54" t="inlineStr">
+        <is>
+          <t>2023-09-15</t>
+        </is>
+      </c>
+      <c r="Z54" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA54" t="inlineStr">
+        <is>
+          <t>2023-09-15</t>
+        </is>
+      </c>
+      <c r="AB54" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC54" t="inlineStr">
+        <is>
+          <t>Längs med en liten stig. På svag sluttning bland kam-och husmossa, revlummer och ekbräken. I närheten finns granvaxskivling, rosa/besk vaxskivling och äggvaxskivling.</t>
+        </is>
+      </c>
+      <c r="AD54" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE54" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF54" t="inlineStr"/>
+      <c r="AG54" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT54" t="inlineStr"/>
+      <c r="AW54" t="inlineStr">
+        <is>
+          <t>Rashid Kadhim</t>
+        </is>
+      </c>
+      <c r="AX54" t="inlineStr">
+        <is>
+          <t>Rashid Kadhim</t>
+        </is>
+      </c>
+      <c r="AY54" t="inlineStr"/>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>112111386</v>
+      </c>
+      <c r="B55" t="n">
+        <v>88946</v>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>VU</t>
+        </is>
+      </c>
+      <c r="E55" t="n">
+        <v>256335</v>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>Taggfingersvamp</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>Ramaria karstenii</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>(Sacc. &amp; P.Syd.) Corner</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr"/>
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="inlineStr"/>
+      <c r="N55" t="inlineStr"/>
+      <c r="P55" t="inlineStr">
+        <is>
+          <t>Renkullmyren (Renkullmyren), Jmt</t>
+        </is>
+      </c>
+      <c r="Q55" t="n">
+        <v>446733.532634148</v>
+      </c>
+      <c r="R55" t="n">
+        <v>7032708.963686833</v>
+      </c>
+      <c r="S55" t="n">
+        <v>10</v>
+      </c>
+      <c r="T55" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="U55" t="inlineStr">
+        <is>
+          <t>Krokom</t>
+        </is>
+      </c>
+      <c r="V55" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="W55" t="inlineStr">
+        <is>
+          <t>Alsen</t>
+        </is>
+      </c>
+      <c r="Y55" t="inlineStr">
+        <is>
+          <t>2023-09-15</t>
+        </is>
+      </c>
+      <c r="Z55" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA55" t="inlineStr">
+        <is>
+          <t>2023-09-15</t>
+        </is>
+      </c>
+      <c r="AB55" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD55" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE55" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF55" t="inlineStr"/>
+      <c r="AG55" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT55" t="inlineStr"/>
+      <c r="AW55" t="inlineStr">
+        <is>
+          <t>Rashid Kadhim</t>
+        </is>
+      </c>
+      <c r="AX55" t="inlineStr">
+        <is>
+          <t>Rashid Kadhim</t>
+        </is>
+      </c>
+      <c r="AY55" t="inlineStr"/>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>112111388</v>
+      </c>
+      <c r="B56" t="n">
+        <v>88956</v>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>VU</t>
+        </is>
+      </c>
+      <c r="E56" t="n">
+        <v>5747</v>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>Läderdoftande fingersvamp</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>Ramaria safraniolens</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>Christian</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr"/>
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="inlineStr"/>
+      <c r="N56" t="inlineStr"/>
+      <c r="P56" t="inlineStr">
+        <is>
+          <t>Renkullmyren (Renkullmyren), Jmt</t>
+        </is>
+      </c>
+      <c r="Q56" t="n">
+        <v>446733.532634148</v>
+      </c>
+      <c r="R56" t="n">
+        <v>7032708.963686833</v>
+      </c>
+      <c r="S56" t="n">
+        <v>10</v>
+      </c>
+      <c r="T56" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="U56" t="inlineStr">
+        <is>
+          <t>Krokom</t>
+        </is>
+      </c>
+      <c r="V56" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="W56" t="inlineStr">
+        <is>
+          <t>Alsen</t>
+        </is>
+      </c>
+      <c r="Y56" t="inlineStr">
+        <is>
+          <t>2023-09-15</t>
+        </is>
+      </c>
+      <c r="Z56" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA56" t="inlineStr">
+        <is>
+          <t>2023-09-15</t>
+        </is>
+      </c>
+      <c r="AB56" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD56" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE56" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF56" t="inlineStr"/>
+      <c r="AG56" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT56" t="inlineStr"/>
+      <c r="AW56" t="inlineStr">
+        <is>
+          <t>Rashid Kadhim</t>
+        </is>
+      </c>
+      <c r="AX56" t="inlineStr">
+        <is>
+          <t>Rashid Kadhim</t>
+        </is>
+      </c>
+      <c r="AY56" t="inlineStr"/>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>112105381</v>
+      </c>
+      <c r="B57" t="n">
+        <v>88899</v>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E57" t="n">
+        <v>3286</v>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>Flattoppad klubbsvamp</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>Clavariadelphus truncatus</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>(Quél.) Donk</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr"/>
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="inlineStr"/>
+      <c r="N57" t="inlineStr"/>
+      <c r="P57" t="inlineStr">
+        <is>
+          <t>Landverktjärnen (Landverktjärnen), Jmt</t>
+        </is>
+      </c>
+      <c r="Q57" t="n">
+        <v>446563.6411143647</v>
+      </c>
+      <c r="R57" t="n">
+        <v>7032715.829486988</v>
+      </c>
+      <c r="S57" t="n">
+        <v>10</v>
+      </c>
+      <c r="T57" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="U57" t="inlineStr">
+        <is>
+          <t>Krokom</t>
+        </is>
+      </c>
+      <c r="V57" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="W57" t="inlineStr">
+        <is>
+          <t>Alsen</t>
+        </is>
+      </c>
+      <c r="Y57" t="inlineStr">
+        <is>
+          <t>2023-09-15</t>
+        </is>
+      </c>
+      <c r="Z57" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA57" t="inlineStr">
+        <is>
+          <t>2023-09-15</t>
+        </is>
+      </c>
+      <c r="AB57" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD57" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE57" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF57" t="inlineStr"/>
+      <c r="AG57" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT57" t="inlineStr"/>
+      <c r="AW57" t="inlineStr">
+        <is>
+          <t>Rashid Kadhim</t>
+        </is>
+      </c>
+      <c r="AX57" t="inlineStr">
+        <is>
+          <t>Rashid Kadhim</t>
+        </is>
+      </c>
+      <c r="AY57" t="inlineStr"/>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>112104863</v>
+      </c>
+      <c r="B58" t="n">
+        <v>90651</v>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E58" t="n">
+        <v>1968</v>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>Grantaggsvamp</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>Bankera violascens</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>(Alb. &amp; Schwein. : Fr.) Pouzar</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr"/>
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="inlineStr"/>
+      <c r="N58" t="inlineStr"/>
+      <c r="P58" t="inlineStr">
+        <is>
+          <t>Hökån (Hökån), Jmt</t>
+        </is>
+      </c>
+      <c r="Q58" t="n">
+        <v>446637.1411376887</v>
+      </c>
+      <c r="R58" t="n">
+        <v>7032523.765577726</v>
+      </c>
+      <c r="S58" t="n">
+        <v>10</v>
+      </c>
+      <c r="T58" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="U58" t="inlineStr">
+        <is>
+          <t>Krokom</t>
+        </is>
+      </c>
+      <c r="V58" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="W58" t="inlineStr">
+        <is>
+          <t>Alsen</t>
+        </is>
+      </c>
+      <c r="Y58" t="inlineStr">
+        <is>
+          <t>2023-09-15</t>
+        </is>
+      </c>
+      <c r="Z58" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA58" t="inlineStr">
+        <is>
+          <t>2023-09-15</t>
+        </is>
+      </c>
+      <c r="AB58" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD58" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE58" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF58" t="inlineStr"/>
+      <c r="AG58" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT58" t="inlineStr"/>
+      <c r="AW58" t="inlineStr">
+        <is>
+          <t>Rashid Kadhim</t>
+        </is>
+      </c>
+      <c r="AX58" t="inlineStr">
+        <is>
+          <t>Rashid Kadhim</t>
+        </is>
+      </c>
+      <c r="AY58" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/artfynd/A 63628-2020.xlsx
+++ b/artfynd/A 63628-2020.xlsx
@@ -6429,10 +6429,10 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>112111378</v>
+        <v>112104863</v>
       </c>
       <c r="B52" t="n">
-        <v>82949</v>
+        <v>90651</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
@@ -6445,21 +6445,21 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>5589</v>
+        <v>1968</v>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Rödbrun klubbdyna</t>
+          <t>Grantaggsvamp</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>Trichoderma nybergianum</t>
+          <t>Bankera violascens</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>(T.Ulvinen &amp; H.L.Chamb.) Jaklitsch &amp; Voglmayr</t>
+          <t>(Alb. &amp; Schwein. : Fr.) Pouzar</t>
         </is>
       </c>
       <c r="I52" t="inlineStr"/>
@@ -6468,14 +6468,14 @@
       <c r="N52" t="inlineStr"/>
       <c r="P52" t="inlineStr">
         <is>
-          <t>Renkullmyren (Renkullmyren), Jmt</t>
+          <t>Hökån (Hökån), Jmt</t>
         </is>
       </c>
       <c r="Q52" t="n">
-        <v>446759.6540099295</v>
+        <v>446637.1411376887</v>
       </c>
       <c r="R52" t="n">
-        <v>7032715.24812395</v>
+        <v>7032523.765577726</v>
       </c>
       <c r="S52" t="n">
         <v>10</v>
@@ -6545,10 +6545,10 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>112111398</v>
+        <v>112111378</v>
       </c>
       <c r="B53" t="n">
-        <v>88966</v>
+        <v>82949</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
@@ -6561,21 +6561,21 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>5754</v>
+        <v>5589</v>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Gultoppig fingersvamp</t>
+          <t>Rödbrun klubbdyna</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>Ramaria testaceoflava</t>
+          <t>Trichoderma nybergianum</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>(Bres.) Corner</t>
+          <t>(T.Ulvinen &amp; H.L.Chamb.) Jaklitsch &amp; Voglmayr</t>
         </is>
       </c>
       <c r="I53" t="inlineStr"/>
@@ -6588,10 +6588,10 @@
         </is>
       </c>
       <c r="Q53" t="n">
-        <v>446739.7436773395</v>
+        <v>446759.6540099295</v>
       </c>
       <c r="R53" t="n">
-        <v>7032704.828598888</v>
+        <v>7032715.24812395</v>
       </c>
       <c r="S53" t="n">
         <v>10</v>
@@ -6661,10 +6661,10 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>112110532</v>
+        <v>112111398</v>
       </c>
       <c r="B54" t="n">
-        <v>88002</v>
+        <v>88966</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
@@ -6673,25 +6673,25 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E54" t="n">
-        <v>245031</v>
+        <v>5754</v>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Borgsjömusseron</t>
+          <t>Gultoppig fingersvamp</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>Tricholoma borgsjoeënse</t>
+          <t>Ramaria testaceoflava</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>Jacobsson &amp; Muskos</t>
+          <t>(Bres.) Corner</t>
         </is>
       </c>
       <c r="I54" t="inlineStr"/>
@@ -6700,14 +6700,14 @@
       <c r="N54" t="inlineStr"/>
       <c r="P54" t="inlineStr">
         <is>
-          <t>Svensbergsbäcken (Svensbergsbäcken), Jmt</t>
+          <t>Renkullmyren (Renkullmyren), Jmt</t>
         </is>
       </c>
       <c r="Q54" t="n">
-        <v>446764.8121887931</v>
+        <v>446739.7436773395</v>
       </c>
       <c r="R54" t="n">
-        <v>7032863.433365297</v>
+        <v>7032704.828598888</v>
       </c>
       <c r="S54" t="n">
         <v>10</v>
@@ -6750,11 +6750,6 @@
       <c r="AB54" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC54" t="inlineStr">
-        <is>
-          <t>Längs med en liten stig. På svag sluttning bland kam-och husmossa, revlummer och ekbräken. I närheten finns granvaxskivling, rosa/besk vaxskivling och äggvaxskivling.</t>
         </is>
       </c>
       <c r="AD54" t="b">
@@ -6898,10 +6893,10 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>112111388</v>
+        <v>112110532</v>
       </c>
       <c r="B56" t="n">
-        <v>88956</v>
+        <v>88002</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
@@ -6914,21 +6909,21 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>5747</v>
+        <v>245031</v>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Läderdoftande fingersvamp</t>
+          <t>Borgsjömusseron</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>Ramaria safraniolens</t>
+          <t>Tricholoma borgsjoeënse</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>Christian</t>
+          <t>Jacobsson &amp; Muskos</t>
         </is>
       </c>
       <c r="I56" t="inlineStr"/>
@@ -6937,14 +6932,14 @@
       <c r="N56" t="inlineStr"/>
       <c r="P56" t="inlineStr">
         <is>
-          <t>Renkullmyren (Renkullmyren), Jmt</t>
+          <t>Svensbergsbäcken (Svensbergsbäcken), Jmt</t>
         </is>
       </c>
       <c r="Q56" t="n">
-        <v>446733.532634148</v>
+        <v>446764.8121887931</v>
       </c>
       <c r="R56" t="n">
-        <v>7032708.963686833</v>
+        <v>7032863.433365297</v>
       </c>
       <c r="S56" t="n">
         <v>10</v>
@@ -6987,6 +6982,11 @@
       <c r="AB56" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC56" t="inlineStr">
+        <is>
+          <t>Längs med en liten stig. På svag sluttning bland kam-och husmossa, revlummer och ekbräken. I närheten finns granvaxskivling, rosa/besk vaxskivling och äggvaxskivling.</t>
         </is>
       </c>
       <c r="AD56" t="b">
@@ -7130,10 +7130,10 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>112104863</v>
+        <v>112111388</v>
       </c>
       <c r="B58" t="n">
-        <v>90651</v>
+        <v>88956</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
@@ -7142,25 +7142,25 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E58" t="n">
-        <v>1968</v>
+        <v>5747</v>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Grantaggsvamp</t>
+          <t>Läderdoftande fingersvamp</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>Bankera violascens</t>
+          <t>Ramaria safraniolens</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein. : Fr.) Pouzar</t>
+          <t>Christian</t>
         </is>
       </c>
       <c r="I58" t="inlineStr"/>
@@ -7169,14 +7169,14 @@
       <c r="N58" t="inlineStr"/>
       <c r="P58" t="inlineStr">
         <is>
-          <t>Hökån (Hökån), Jmt</t>
+          <t>Renkullmyren (Renkullmyren), Jmt</t>
         </is>
       </c>
       <c r="Q58" t="n">
-        <v>446637.1411376887</v>
+        <v>446733.532634148</v>
       </c>
       <c r="R58" t="n">
-        <v>7032523.765577726</v>
+        <v>7032708.963686833</v>
       </c>
       <c r="S58" t="n">
         <v>10</v>

--- a/artfynd/A 63628-2020.xlsx
+++ b/artfynd/A 63628-2020.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AY58"/>
+  <dimension ref="A1:AY61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7244,6 +7244,312 @@
       </c>
       <c r="AY58" t="inlineStr"/>
     </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>112213255</v>
+      </c>
+      <c r="B59" t="n">
+        <v>90332</v>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E59" t="n">
+        <v>4769</v>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>Svavelriska</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>Lactarius scrobiculatus</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>(Scop.:Fr.) Fr.</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr"/>
+      <c r="P59" t="inlineStr">
+        <is>
+          <t>Ol-olssvarttjärnen, Jmt</t>
+        </is>
+      </c>
+      <c r="Q59" t="n">
+        <v>446605</v>
+      </c>
+      <c r="R59" t="n">
+        <v>7032710</v>
+      </c>
+      <c r="S59" t="n">
+        <v>10</v>
+      </c>
+      <c r="T59" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="U59" t="inlineStr">
+        <is>
+          <t>Krokom</t>
+        </is>
+      </c>
+      <c r="V59" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="W59" t="inlineStr">
+        <is>
+          <t>Alsen</t>
+        </is>
+      </c>
+      <c r="Y59" t="inlineStr">
+        <is>
+          <t>2023-09-19</t>
+        </is>
+      </c>
+      <c r="AA59" t="inlineStr">
+        <is>
+          <t>2023-09-19</t>
+        </is>
+      </c>
+      <c r="AD59" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE59" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG59" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT59" t="inlineStr"/>
+      <c r="AW59" t="inlineStr">
+        <is>
+          <t>Erik Lundmark</t>
+        </is>
+      </c>
+      <c r="AX59" t="inlineStr">
+        <is>
+          <t>Erik Lundmark</t>
+        </is>
+      </c>
+      <c r="AY59" t="inlineStr"/>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>112213232</v>
+      </c>
+      <c r="B60" t="n">
+        <v>88956</v>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>VU</t>
+        </is>
+      </c>
+      <c r="E60" t="n">
+        <v>5747</v>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>Läderdoftande fingersvamp</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>Ramaria safraniolens</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>Christian</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr"/>
+      <c r="P60" t="inlineStr">
+        <is>
+          <t>Ol-olssvarttjärnen, Jmt</t>
+        </is>
+      </c>
+      <c r="Q60" t="n">
+        <v>446675</v>
+      </c>
+      <c r="R60" t="n">
+        <v>7032593</v>
+      </c>
+      <c r="S60" t="n">
+        <v>10</v>
+      </c>
+      <c r="T60" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="U60" t="inlineStr">
+        <is>
+          <t>Krokom</t>
+        </is>
+      </c>
+      <c r="V60" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="W60" t="inlineStr">
+        <is>
+          <t>Alsen</t>
+        </is>
+      </c>
+      <c r="Y60" t="inlineStr">
+        <is>
+          <t>2023-09-19</t>
+        </is>
+      </c>
+      <c r="AA60" t="inlineStr">
+        <is>
+          <t>2023-09-19</t>
+        </is>
+      </c>
+      <c r="AD60" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE60" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG60" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT60" t="inlineStr"/>
+      <c r="AW60" t="inlineStr">
+        <is>
+          <t>Erik Lundmark</t>
+        </is>
+      </c>
+      <c r="AX60" t="inlineStr">
+        <is>
+          <t>Erik Lundmark</t>
+        </is>
+      </c>
+      <c r="AY60" t="inlineStr"/>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>112213235</v>
+      </c>
+      <c r="B61" t="n">
+        <v>90687</v>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E61" t="n">
+        <v>5964</v>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>Fjällig taggsvamp s.str.</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>Sarcodon imbricatus s.str.</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>(L.:Fr.) P.Karst.</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr"/>
+      <c r="P61" t="inlineStr">
+        <is>
+          <t>Ol-olssvarttjärnen, Jmt</t>
+        </is>
+      </c>
+      <c r="Q61" t="n">
+        <v>446568</v>
+      </c>
+      <c r="R61" t="n">
+        <v>7032711</v>
+      </c>
+      <c r="S61" t="n">
+        <v>10</v>
+      </c>
+      <c r="T61" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="U61" t="inlineStr">
+        <is>
+          <t>Krokom</t>
+        </is>
+      </c>
+      <c r="V61" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="W61" t="inlineStr">
+        <is>
+          <t>Alsen</t>
+        </is>
+      </c>
+      <c r="Y61" t="inlineStr">
+        <is>
+          <t>2023-09-19</t>
+        </is>
+      </c>
+      <c r="AA61" t="inlineStr">
+        <is>
+          <t>2023-09-19</t>
+        </is>
+      </c>
+      <c r="AD61" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE61" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG61" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT61" t="inlineStr"/>
+      <c r="AW61" t="inlineStr">
+        <is>
+          <t>Erik Lundmark</t>
+        </is>
+      </c>
+      <c r="AX61" t="inlineStr">
+        <is>
+          <t>Erik Lundmark</t>
+        </is>
+      </c>
+      <c r="AY61" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/artfynd/A 63628-2020.xlsx
+++ b/artfynd/A 63628-2020.xlsx
@@ -6429,10 +6429,10 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>112104863</v>
+        <v>112105381</v>
       </c>
       <c r="B52" t="n">
-        <v>90651</v>
+        <v>88899</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
@@ -6445,21 +6445,21 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>1968</v>
+        <v>3286</v>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Grantaggsvamp</t>
+          <t>Flattoppad klubbsvamp</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>Bankera violascens</t>
+          <t>Clavariadelphus truncatus</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein. : Fr.) Pouzar</t>
+          <t>(Quél.) Donk</t>
         </is>
       </c>
       <c r="I52" t="inlineStr"/>
@@ -6468,14 +6468,14 @@
       <c r="N52" t="inlineStr"/>
       <c r="P52" t="inlineStr">
         <is>
-          <t>Hökån (Hökån), Jmt</t>
+          <t>Landverktjärnen (Landverktjärnen), Jmt</t>
         </is>
       </c>
       <c r="Q52" t="n">
-        <v>446637.1411376887</v>
+        <v>446564</v>
       </c>
       <c r="R52" t="n">
-        <v>7032523.765577726</v>
+        <v>7032716</v>
       </c>
       <c r="S52" t="n">
         <v>10</v>
@@ -6505,19 +6505,9 @@
           <t>2023-09-15</t>
         </is>
       </c>
-      <c r="Z52" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA52" t="inlineStr">
         <is>
           <t>2023-09-15</t>
-        </is>
-      </c>
-      <c r="AB52" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD52" t="b">
@@ -6545,10 +6535,10 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>112111378</v>
+        <v>112110532</v>
       </c>
       <c r="B53" t="n">
-        <v>82949</v>
+        <v>88002</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
@@ -6557,25 +6547,25 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E53" t="n">
-        <v>5589</v>
+        <v>245031</v>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Rödbrun klubbdyna</t>
+          <t>Borgsjömusseron</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>Trichoderma nybergianum</t>
+          <t>Tricholoma borgsjoeënse</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>(T.Ulvinen &amp; H.L.Chamb.) Jaklitsch &amp; Voglmayr</t>
+          <t>Jacobsson &amp; Muskos</t>
         </is>
       </c>
       <c r="I53" t="inlineStr"/>
@@ -6584,14 +6574,14 @@
       <c r="N53" t="inlineStr"/>
       <c r="P53" t="inlineStr">
         <is>
-          <t>Renkullmyren (Renkullmyren), Jmt</t>
+          <t>Svensbergsbäcken (Svensbergsbäcken), Jmt</t>
         </is>
       </c>
       <c r="Q53" t="n">
-        <v>446759.6540099295</v>
+        <v>446765</v>
       </c>
       <c r="R53" t="n">
-        <v>7032715.24812395</v>
+        <v>7032863</v>
       </c>
       <c r="S53" t="n">
         <v>10</v>
@@ -6621,19 +6611,14 @@
           <t>2023-09-15</t>
         </is>
       </c>
-      <c r="Z53" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA53" t="inlineStr">
         <is>
           <t>2023-09-15</t>
         </is>
       </c>
-      <c r="AB53" t="inlineStr">
-        <is>
-          <t>00:00</t>
+      <c r="AC53" t="inlineStr">
+        <is>
+          <t>Längs med en liten stig. På svag sluttning bland kam-och husmossa, revlummer och ekbräken. I närheten finns granvaxskivling, rosa/besk vaxskivling och äggvaxskivling.</t>
         </is>
       </c>
       <c r="AD53" t="b">
@@ -6661,10 +6646,10 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>112111398</v>
+        <v>112111388</v>
       </c>
       <c r="B54" t="n">
-        <v>88966</v>
+        <v>88956</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
@@ -6673,25 +6658,25 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E54" t="n">
-        <v>5754</v>
+        <v>5747</v>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Gultoppig fingersvamp</t>
+          <t>Läderdoftande fingersvamp</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>Ramaria testaceoflava</t>
+          <t>Ramaria safraniolens</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>(Bres.) Corner</t>
+          <t>Christian</t>
         </is>
       </c>
       <c r="I54" t="inlineStr"/>
@@ -6704,10 +6689,10 @@
         </is>
       </c>
       <c r="Q54" t="n">
-        <v>446739.7436773395</v>
+        <v>446734</v>
       </c>
       <c r="R54" t="n">
-        <v>7032704.828598888</v>
+        <v>7032709</v>
       </c>
       <c r="S54" t="n">
         <v>10</v>
@@ -6737,19 +6722,9 @@
           <t>2023-09-15</t>
         </is>
       </c>
-      <c r="Z54" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA54" t="inlineStr">
         <is>
           <t>2023-09-15</t>
-        </is>
-      </c>
-      <c r="AB54" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD54" t="b">
@@ -6777,10 +6752,10 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>112111386</v>
+        <v>112104863</v>
       </c>
       <c r="B55" t="n">
-        <v>88946</v>
+        <v>90651</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
@@ -6789,25 +6764,25 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E55" t="n">
-        <v>256335</v>
+        <v>1968</v>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Taggfingersvamp</t>
+          <t>Grantaggsvamp</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>Ramaria karstenii</t>
+          <t>Bankera violascens</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>(Sacc. &amp; P.Syd.) Corner</t>
+          <t>(Alb. &amp; Schwein. : Fr.) Pouzar</t>
         </is>
       </c>
       <c r="I55" t="inlineStr"/>
@@ -6816,14 +6791,14 @@
       <c r="N55" t="inlineStr"/>
       <c r="P55" t="inlineStr">
         <is>
-          <t>Renkullmyren (Renkullmyren), Jmt</t>
+          <t>Hökån (Hökån), Jmt</t>
         </is>
       </c>
       <c r="Q55" t="n">
-        <v>446733.532634148</v>
+        <v>446637</v>
       </c>
       <c r="R55" t="n">
-        <v>7032708.963686833</v>
+        <v>7032524</v>
       </c>
       <c r="S55" t="n">
         <v>10</v>
@@ -6853,19 +6828,9 @@
           <t>2023-09-15</t>
         </is>
       </c>
-      <c r="Z55" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA55" t="inlineStr">
         <is>
           <t>2023-09-15</t>
-        </is>
-      </c>
-      <c r="AB55" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD55" t="b">
@@ -6893,10 +6858,10 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>112110532</v>
+        <v>112111378</v>
       </c>
       <c r="B56" t="n">
-        <v>88002</v>
+        <v>82949</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
@@ -6905,25 +6870,25 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E56" t="n">
-        <v>245031</v>
+        <v>5589</v>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Borgsjömusseron</t>
+          <t>Rödbrun klubbdyna</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>Tricholoma borgsjoeënse</t>
+          <t>Trichoderma nybergianum</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>Jacobsson &amp; Muskos</t>
+          <t>(T.Ulvinen &amp; H.L.Chamb.) Jaklitsch &amp; Voglmayr</t>
         </is>
       </c>
       <c r="I56" t="inlineStr"/>
@@ -6932,14 +6897,14 @@
       <c r="N56" t="inlineStr"/>
       <c r="P56" t="inlineStr">
         <is>
-          <t>Svensbergsbäcken (Svensbergsbäcken), Jmt</t>
+          <t>Renkullmyren (Renkullmyren), Jmt</t>
         </is>
       </c>
       <c r="Q56" t="n">
-        <v>446764.8121887931</v>
+        <v>446760</v>
       </c>
       <c r="R56" t="n">
-        <v>7032863.433365297</v>
+        <v>7032715</v>
       </c>
       <c r="S56" t="n">
         <v>10</v>
@@ -6969,24 +6934,9 @@
           <t>2023-09-15</t>
         </is>
       </c>
-      <c r="Z56" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA56" t="inlineStr">
         <is>
           <t>2023-09-15</t>
-        </is>
-      </c>
-      <c r="AB56" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC56" t="inlineStr">
-        <is>
-          <t>Längs med en liten stig. På svag sluttning bland kam-och husmossa, revlummer och ekbräken. I närheten finns granvaxskivling, rosa/besk vaxskivling och äggvaxskivling.</t>
         </is>
       </c>
       <c r="AD56" t="b">
@@ -7014,10 +6964,10 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>112105381</v>
+        <v>112111398</v>
       </c>
       <c r="B57" t="n">
-        <v>88899</v>
+        <v>88966</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
@@ -7030,21 +6980,21 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>3286</v>
+        <v>5754</v>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Flattoppad klubbsvamp</t>
+          <t>Gultoppig fingersvamp</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>Clavariadelphus truncatus</t>
+          <t>Ramaria testaceoflava</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>(Quél.) Donk</t>
+          <t>(Bres.) Corner</t>
         </is>
       </c>
       <c r="I57" t="inlineStr"/>
@@ -7053,14 +7003,14 @@
       <c r="N57" t="inlineStr"/>
       <c r="P57" t="inlineStr">
         <is>
-          <t>Landverktjärnen (Landverktjärnen), Jmt</t>
+          <t>Renkullmyren (Renkullmyren), Jmt</t>
         </is>
       </c>
       <c r="Q57" t="n">
-        <v>446563.6411143647</v>
+        <v>446740</v>
       </c>
       <c r="R57" t="n">
-        <v>7032715.829486988</v>
+        <v>7032705</v>
       </c>
       <c r="S57" t="n">
         <v>10</v>
@@ -7090,19 +7040,9 @@
           <t>2023-09-15</t>
         </is>
       </c>
-      <c r="Z57" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA57" t="inlineStr">
         <is>
           <t>2023-09-15</t>
-        </is>
-      </c>
-      <c r="AB57" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD57" t="b">
@@ -7130,10 +7070,10 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>112111388</v>
+        <v>112111386</v>
       </c>
       <c r="B58" t="n">
-        <v>88956</v>
+        <v>88946</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
@@ -7146,21 +7086,21 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>5747</v>
+        <v>256335</v>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Läderdoftande fingersvamp</t>
+          <t>Taggfingersvamp</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>Ramaria safraniolens</t>
+          <t>Ramaria karstenii</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>Christian</t>
+          <t>(Sacc. &amp; P.Syd.) Corner</t>
         </is>
       </c>
       <c r="I58" t="inlineStr"/>
@@ -7173,10 +7113,10 @@
         </is>
       </c>
       <c r="Q58" t="n">
-        <v>446733.532634148</v>
+        <v>446734</v>
       </c>
       <c r="R58" t="n">
-        <v>7032708.963686833</v>
+        <v>7032709</v>
       </c>
       <c r="S58" t="n">
         <v>10</v>
@@ -7206,19 +7146,9 @@
           <t>2023-09-15</t>
         </is>
       </c>
-      <c r="Z58" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA58" t="inlineStr">
         <is>
           <t>2023-09-15</t>
-        </is>
-      </c>
-      <c r="AB58" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD58" t="b">
@@ -7246,10 +7176,10 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>112213255</v>
+        <v>112213232</v>
       </c>
       <c r="B59" t="n">
-        <v>90332</v>
+        <v>88956</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
@@ -7258,25 +7188,25 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E59" t="n">
-        <v>4769</v>
+        <v>5747</v>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Svavelriska</t>
+          <t>Läderdoftande fingersvamp</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>Lactarius scrobiculatus</t>
+          <t>Ramaria safraniolens</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) Fr.</t>
+          <t>Christian</t>
         </is>
       </c>
       <c r="I59" t="inlineStr"/>
@@ -7286,10 +7216,10 @@
         </is>
       </c>
       <c r="Q59" t="n">
-        <v>446605</v>
+        <v>446675</v>
       </c>
       <c r="R59" t="n">
-        <v>7032710</v>
+        <v>7032593</v>
       </c>
       <c r="S59" t="n">
         <v>10</v>
@@ -7348,10 +7278,10 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>112213232</v>
+        <v>112213255</v>
       </c>
       <c r="B60" t="n">
-        <v>88956</v>
+        <v>90332</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
@@ -7360,25 +7290,25 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E60" t="n">
-        <v>5747</v>
+        <v>4769</v>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Läderdoftande fingersvamp</t>
+          <t>Svavelriska</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>Ramaria safraniolens</t>
+          <t>Lactarius scrobiculatus</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>Christian</t>
+          <t>(Scop.:Fr.) Fr.</t>
         </is>
       </c>
       <c r="I60" t="inlineStr"/>
@@ -7388,10 +7318,10 @@
         </is>
       </c>
       <c r="Q60" t="n">
-        <v>446675</v>
+        <v>446605</v>
       </c>
       <c r="R60" t="n">
-        <v>7032593</v>
+        <v>7032710</v>
       </c>
       <c r="S60" t="n">
         <v>10</v>

--- a/artfynd/A 63628-2020.xlsx
+++ b/artfynd/A 63628-2020.xlsx
@@ -6429,10 +6429,10 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>112105381</v>
+        <v>112104863</v>
       </c>
       <c r="B52" t="n">
-        <v>88899</v>
+        <v>90785</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
@@ -6445,21 +6445,21 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>3286</v>
+        <v>1968</v>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Flattoppad klubbsvamp</t>
+          <t>Grantaggsvamp</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>Clavariadelphus truncatus</t>
+          <t>Bankera violascens</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>(Quél.) Donk</t>
+          <t>(Alb. &amp; Schwein. : Fr.) Pouzar</t>
         </is>
       </c>
       <c r="I52" t="inlineStr"/>
@@ -6468,14 +6468,14 @@
       <c r="N52" t="inlineStr"/>
       <c r="P52" t="inlineStr">
         <is>
-          <t>Landverktjärnen (Landverktjärnen), Jmt</t>
+          <t>Hökån (Hökån), Jmt</t>
         </is>
       </c>
       <c r="Q52" t="n">
-        <v>446564</v>
+        <v>446637</v>
       </c>
       <c r="R52" t="n">
-        <v>7032716</v>
+        <v>7032524</v>
       </c>
       <c r="S52" t="n">
         <v>10</v>
@@ -6535,10 +6535,10 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>112110532</v>
+        <v>112111386</v>
       </c>
       <c r="B53" t="n">
-        <v>88002</v>
+        <v>89080</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
@@ -6551,21 +6551,21 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>245031</v>
+        <v>256335</v>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Borgsjömusseron</t>
+          <t>Taggfingersvamp</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>Tricholoma borgsjoeënse</t>
+          <t>Ramaria karstenii</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>Jacobsson &amp; Muskos</t>
+          <t>(Sacc. &amp; P.Syd.) Corner</t>
         </is>
       </c>
       <c r="I53" t="inlineStr"/>
@@ -6574,14 +6574,14 @@
       <c r="N53" t="inlineStr"/>
       <c r="P53" t="inlineStr">
         <is>
-          <t>Svensbergsbäcken (Svensbergsbäcken), Jmt</t>
+          <t>Renkullmyren (Renkullmyren), Jmt</t>
         </is>
       </c>
       <c r="Q53" t="n">
-        <v>446765</v>
+        <v>446734</v>
       </c>
       <c r="R53" t="n">
-        <v>7032863</v>
+        <v>7032709</v>
       </c>
       <c r="S53" t="n">
         <v>10</v>
@@ -6614,11 +6614,6 @@
       <c r="AA53" t="inlineStr">
         <is>
           <t>2023-09-15</t>
-        </is>
-      </c>
-      <c r="AC53" t="inlineStr">
-        <is>
-          <t>Längs med en liten stig. På svag sluttning bland kam-och husmossa, revlummer och ekbräken. I närheten finns granvaxskivling, rosa/besk vaxskivling och äggvaxskivling.</t>
         </is>
       </c>
       <c r="AD53" t="b">
@@ -6646,10 +6641,10 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>112111388</v>
+        <v>112105381</v>
       </c>
       <c r="B54" t="n">
-        <v>88956</v>
+        <v>89033</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
@@ -6658,25 +6653,25 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E54" t="n">
-        <v>5747</v>
+        <v>3286</v>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Läderdoftande fingersvamp</t>
+          <t>Flattoppad klubbsvamp</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>Ramaria safraniolens</t>
+          <t>Clavariadelphus truncatus</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>Christian</t>
+          <t>(Quél.) Donk</t>
         </is>
       </c>
       <c r="I54" t="inlineStr"/>
@@ -6685,14 +6680,14 @@
       <c r="N54" t="inlineStr"/>
       <c r="P54" t="inlineStr">
         <is>
-          <t>Renkullmyren (Renkullmyren), Jmt</t>
+          <t>Landverktjärnen (Landverktjärnen), Jmt</t>
         </is>
       </c>
       <c r="Q54" t="n">
-        <v>446734</v>
+        <v>446564</v>
       </c>
       <c r="R54" t="n">
-        <v>7032709</v>
+        <v>7032716</v>
       </c>
       <c r="S54" t="n">
         <v>10</v>
@@ -6752,10 +6747,10 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>112104863</v>
+        <v>112111388</v>
       </c>
       <c r="B55" t="n">
-        <v>90651</v>
+        <v>89090</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
@@ -6764,25 +6759,25 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E55" t="n">
-        <v>1968</v>
+        <v>5747</v>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Grantaggsvamp</t>
+          <t>Läderdoftande fingersvamp</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>Bankera violascens</t>
+          <t>Ramaria safraniolens</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein. : Fr.) Pouzar</t>
+          <t>Christian</t>
         </is>
       </c>
       <c r="I55" t="inlineStr"/>
@@ -6791,14 +6786,14 @@
       <c r="N55" t="inlineStr"/>
       <c r="P55" t="inlineStr">
         <is>
-          <t>Hökån (Hökån), Jmt</t>
+          <t>Renkullmyren (Renkullmyren), Jmt</t>
         </is>
       </c>
       <c r="Q55" t="n">
-        <v>446637</v>
+        <v>446734</v>
       </c>
       <c r="R55" t="n">
-        <v>7032524</v>
+        <v>7032709</v>
       </c>
       <c r="S55" t="n">
         <v>10</v>
@@ -6858,10 +6853,10 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>112111378</v>
+        <v>112111398</v>
       </c>
       <c r="B56" t="n">
-        <v>82949</v>
+        <v>89100</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
@@ -6874,21 +6869,21 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>5589</v>
+        <v>5754</v>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Rödbrun klubbdyna</t>
+          <t>Gultoppig fingersvamp</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>Trichoderma nybergianum</t>
+          <t>Ramaria testaceoflava</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>(T.Ulvinen &amp; H.L.Chamb.) Jaklitsch &amp; Voglmayr</t>
+          <t>(Bres.) Corner</t>
         </is>
       </c>
       <c r="I56" t="inlineStr"/>
@@ -6901,10 +6896,10 @@
         </is>
       </c>
       <c r="Q56" t="n">
-        <v>446760</v>
+        <v>446740</v>
       </c>
       <c r="R56" t="n">
-        <v>7032715</v>
+        <v>7032705</v>
       </c>
       <c r="S56" t="n">
         <v>10</v>
@@ -6964,10 +6959,10 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>112111398</v>
+        <v>112111378</v>
       </c>
       <c r="B57" t="n">
-        <v>88966</v>
+        <v>83072</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
@@ -6980,21 +6975,21 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>5754</v>
+        <v>5589</v>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Gultoppig fingersvamp</t>
+          <t>Rödbrun klubbdyna</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>Ramaria testaceoflava</t>
+          <t>Trichoderma nybergianum</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>(Bres.) Corner</t>
+          <t>(T.Ulvinen &amp; H.L.Chamb.) Jaklitsch &amp; Voglmayr</t>
         </is>
       </c>
       <c r="I57" t="inlineStr"/>
@@ -7007,10 +7002,10 @@
         </is>
       </c>
       <c r="Q57" t="n">
-        <v>446740</v>
+        <v>446760</v>
       </c>
       <c r="R57" t="n">
-        <v>7032705</v>
+        <v>7032715</v>
       </c>
       <c r="S57" t="n">
         <v>10</v>
@@ -7070,10 +7065,10 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>112111386</v>
+        <v>112213255</v>
       </c>
       <c r="B58" t="n">
-        <v>88946</v>
+        <v>90466</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
@@ -7082,41 +7077,38 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E58" t="n">
-        <v>256335</v>
+        <v>4769</v>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Taggfingersvamp</t>
+          <t>Svavelriska</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>Ramaria karstenii</t>
+          <t>Lactarius scrobiculatus</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>(Sacc. &amp; P.Syd.) Corner</t>
+          <t>(Scop.:Fr.) Fr.</t>
         </is>
       </c>
       <c r="I58" t="inlineStr"/>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="N58" t="inlineStr"/>
       <c r="P58" t="inlineStr">
         <is>
-          <t>Renkullmyren (Renkullmyren), Jmt</t>
+          <t>Ol-olssvarttjärnen, Jmt</t>
         </is>
       </c>
       <c r="Q58" t="n">
-        <v>446734</v>
+        <v>446605</v>
       </c>
       <c r="R58" t="n">
-        <v>7032709</v>
+        <v>7032710</v>
       </c>
       <c r="S58" t="n">
         <v>10</v>
@@ -7143,12 +7135,12 @@
       </c>
       <c r="Y58" t="inlineStr">
         <is>
-          <t>2023-09-15</t>
+          <t>2023-09-19</t>
         </is>
       </c>
       <c r="AA58" t="inlineStr">
         <is>
-          <t>2023-09-15</t>
+          <t>2023-09-19</t>
         </is>
       </c>
       <c r="AD58" t="b">
@@ -7157,19 +7149,18 @@
       <c r="AE58" t="b">
         <v>0</v>
       </c>
-      <c r="AF58" t="inlineStr"/>
       <c r="AG58" t="b">
         <v>0</v>
       </c>
       <c r="AT58" t="inlineStr"/>
       <c r="AW58" t="inlineStr">
         <is>
-          <t>Rashid Kadhim</t>
+          <t>Erik Lundmark</t>
         </is>
       </c>
       <c r="AX58" t="inlineStr">
         <is>
-          <t>Rashid Kadhim</t>
+          <t>Erik Lundmark</t>
         </is>
       </c>
       <c r="AY58" t="inlineStr"/>
@@ -7179,7 +7170,7 @@
         <v>112213232</v>
       </c>
       <c r="B59" t="n">
-        <v>88956</v>
+        <v>89090</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
@@ -7278,10 +7269,10 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>112213255</v>
+        <v>112213235</v>
       </c>
       <c r="B60" t="n">
-        <v>90332</v>
+        <v>90821</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
@@ -7294,21 +7285,21 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>4769</v>
+        <v>5964</v>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Svavelriska</t>
+          <t>Fjällig taggsvamp s.str.</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>Lactarius scrobiculatus</t>
+          <t>Sarcodon imbricatus s.str.</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) Fr.</t>
+          <t>(L.:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I60" t="inlineStr"/>
@@ -7318,10 +7309,10 @@
         </is>
       </c>
       <c r="Q60" t="n">
-        <v>446605</v>
+        <v>446568</v>
       </c>
       <c r="R60" t="n">
-        <v>7032710</v>
+        <v>7032711</v>
       </c>
       <c r="S60" t="n">
         <v>10</v>
@@ -7380,10 +7371,10 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>112213235</v>
+        <v>112110532</v>
       </c>
       <c r="B61" t="n">
-        <v>90687</v>
+        <v>88136</v>
       </c>
       <c r="C61" t="inlineStr">
         <is>
@@ -7392,38 +7383,41 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E61" t="n">
-        <v>5964</v>
+        <v>245031</v>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Fjällig taggsvamp s.str.</t>
+          <t>Borgsjömusseron</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>Sarcodon imbricatus s.str.</t>
+          <t>Tricholoma borgsjoeënse</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>(L.:Fr.) P.Karst.</t>
+          <t>Jacobsson &amp; Muskos</t>
         </is>
       </c>
       <c r="I61" t="inlineStr"/>
+      <c r="J61" t="inlineStr"/>
+      <c r="K61" t="inlineStr"/>
+      <c r="N61" t="inlineStr"/>
       <c r="P61" t="inlineStr">
         <is>
-          <t>Ol-olssvarttjärnen, Jmt</t>
+          <t>Svensbergsbäcken (Svensbergsbäcken), Jmt</t>
         </is>
       </c>
       <c r="Q61" t="n">
-        <v>446568</v>
+        <v>446765</v>
       </c>
       <c r="R61" t="n">
-        <v>7032711</v>
+        <v>7032863</v>
       </c>
       <c r="S61" t="n">
         <v>10</v>
@@ -7450,12 +7444,17 @@
       </c>
       <c r="Y61" t="inlineStr">
         <is>
-          <t>2023-09-19</t>
+          <t>2023-09-15</t>
         </is>
       </c>
       <c r="AA61" t="inlineStr">
         <is>
-          <t>2023-09-19</t>
+          <t>2023-09-15</t>
+        </is>
+      </c>
+      <c r="AC61" t="inlineStr">
+        <is>
+          <t>På svag sluttning bland kam-och husmossa, revlummer och ekbräken. I närheten finns granvaxskivling, rosa/besk vaxskivling och äggvaxskivling.</t>
         </is>
       </c>
       <c r="AD61" t="b">
@@ -7464,18 +7463,19 @@
       <c r="AE61" t="b">
         <v>0</v>
       </c>
+      <c r="AF61" t="inlineStr"/>
       <c r="AG61" t="b">
         <v>0</v>
       </c>
       <c r="AT61" t="inlineStr"/>
       <c r="AW61" t="inlineStr">
         <is>
-          <t>Erik Lundmark</t>
+          <t>Rashid Kadhim</t>
         </is>
       </c>
       <c r="AX61" t="inlineStr">
         <is>
-          <t>Erik Lundmark</t>
+          <t>Rashid Kadhim</t>
         </is>
       </c>
       <c r="AY61" t="inlineStr"/>

--- a/artfynd/A 63628-2020.xlsx
+++ b/artfynd/A 63628-2020.xlsx
@@ -6432,7 +6432,7 @@
         <v>112104863</v>
       </c>
       <c r="B52" t="n">
-        <v>90785</v>
+        <v>90799</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
@@ -6535,10 +6535,10 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>112111386</v>
+        <v>112111388</v>
       </c>
       <c r="B53" t="n">
-        <v>89080</v>
+        <v>89104</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
@@ -6551,21 +6551,21 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>256335</v>
+        <v>5747</v>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Taggfingersvamp</t>
+          <t>Läderdoftande fingersvamp</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>Ramaria karstenii</t>
+          <t>Ramaria safraniolens</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>(Sacc. &amp; P.Syd.) Corner</t>
+          <t>Christian</t>
         </is>
       </c>
       <c r="I53" t="inlineStr"/>
@@ -6641,10 +6641,10 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>112105381</v>
+        <v>112111386</v>
       </c>
       <c r="B54" t="n">
-        <v>89033</v>
+        <v>89094</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
@@ -6653,25 +6653,25 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E54" t="n">
-        <v>3286</v>
+        <v>256335</v>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Flattoppad klubbsvamp</t>
+          <t>Taggfingersvamp</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>Clavariadelphus truncatus</t>
+          <t>Ramaria karstenii</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>(Quél.) Donk</t>
+          <t>(Sacc. &amp; P.Syd.) Corner</t>
         </is>
       </c>
       <c r="I54" t="inlineStr"/>
@@ -6680,14 +6680,14 @@
       <c r="N54" t="inlineStr"/>
       <c r="P54" t="inlineStr">
         <is>
-          <t>Landverktjärnen (Landverktjärnen), Jmt</t>
+          <t>Renkullmyren (Renkullmyren), Jmt</t>
         </is>
       </c>
       <c r="Q54" t="n">
-        <v>446564</v>
+        <v>446734</v>
       </c>
       <c r="R54" t="n">
-        <v>7032716</v>
+        <v>7032709</v>
       </c>
       <c r="S54" t="n">
         <v>10</v>
@@ -6747,10 +6747,10 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>112111388</v>
+        <v>112105381</v>
       </c>
       <c r="B55" t="n">
-        <v>89090</v>
+        <v>89047</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
@@ -6759,25 +6759,25 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E55" t="n">
-        <v>5747</v>
+        <v>3286</v>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Läderdoftande fingersvamp</t>
+          <t>Flattoppad klubbsvamp</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>Ramaria safraniolens</t>
+          <t>Clavariadelphus truncatus</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>Christian</t>
+          <t>(Quél.) Donk</t>
         </is>
       </c>
       <c r="I55" t="inlineStr"/>
@@ -6786,14 +6786,14 @@
       <c r="N55" t="inlineStr"/>
       <c r="P55" t="inlineStr">
         <is>
-          <t>Renkullmyren (Renkullmyren), Jmt</t>
+          <t>Landverktjärnen (Landverktjärnen), Jmt</t>
         </is>
       </c>
       <c r="Q55" t="n">
-        <v>446734</v>
+        <v>446564</v>
       </c>
       <c r="R55" t="n">
-        <v>7032709</v>
+        <v>7032716</v>
       </c>
       <c r="S55" t="n">
         <v>10</v>
@@ -6853,10 +6853,10 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>112111398</v>
+        <v>112111378</v>
       </c>
       <c r="B56" t="n">
-        <v>89100</v>
+        <v>83086</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
@@ -6869,21 +6869,21 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>5754</v>
+        <v>5589</v>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Gultoppig fingersvamp</t>
+          <t>Rödbrun klubbdyna</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>Ramaria testaceoflava</t>
+          <t>Trichoderma nybergianum</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>(Bres.) Corner</t>
+          <t>(T.Ulvinen &amp; H.L.Chamb.) Jaklitsch &amp; Voglmayr</t>
         </is>
       </c>
       <c r="I56" t="inlineStr"/>
@@ -6896,10 +6896,10 @@
         </is>
       </c>
       <c r="Q56" t="n">
-        <v>446740</v>
+        <v>446760</v>
       </c>
       <c r="R56" t="n">
-        <v>7032705</v>
+        <v>7032715</v>
       </c>
       <c r="S56" t="n">
         <v>10</v>
@@ -6959,10 +6959,10 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>112111378</v>
+        <v>112111398</v>
       </c>
       <c r="B57" t="n">
-        <v>83072</v>
+        <v>89114</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
@@ -6975,21 +6975,21 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>5589</v>
+        <v>5754</v>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Rödbrun klubbdyna</t>
+          <t>Gultoppig fingersvamp</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>Trichoderma nybergianum</t>
+          <t>Ramaria testaceoflava</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>(T.Ulvinen &amp; H.L.Chamb.) Jaklitsch &amp; Voglmayr</t>
+          <t>(Bres.) Corner</t>
         </is>
       </c>
       <c r="I57" t="inlineStr"/>
@@ -7002,10 +7002,10 @@
         </is>
       </c>
       <c r="Q57" t="n">
-        <v>446760</v>
+        <v>446740</v>
       </c>
       <c r="R57" t="n">
-        <v>7032715</v>
+        <v>7032705</v>
       </c>
       <c r="S57" t="n">
         <v>10</v>
@@ -7065,10 +7065,10 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>112213255</v>
+        <v>112213232</v>
       </c>
       <c r="B58" t="n">
-        <v>90466</v>
+        <v>89104</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
@@ -7077,25 +7077,25 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E58" t="n">
-        <v>4769</v>
+        <v>5747</v>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Svavelriska</t>
+          <t>Läderdoftande fingersvamp</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>Lactarius scrobiculatus</t>
+          <t>Ramaria safraniolens</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) Fr.</t>
+          <t>Christian</t>
         </is>
       </c>
       <c r="I58" t="inlineStr"/>
@@ -7105,10 +7105,10 @@
         </is>
       </c>
       <c r="Q58" t="n">
-        <v>446605</v>
+        <v>446675</v>
       </c>
       <c r="R58" t="n">
-        <v>7032710</v>
+        <v>7032593</v>
       </c>
       <c r="S58" t="n">
         <v>10</v>
@@ -7167,10 +7167,10 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>112213232</v>
+        <v>112213255</v>
       </c>
       <c r="B59" t="n">
-        <v>89090</v>
+        <v>90480</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
@@ -7179,25 +7179,25 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E59" t="n">
-        <v>5747</v>
+        <v>4769</v>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Läderdoftande fingersvamp</t>
+          <t>Svavelriska</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>Ramaria safraniolens</t>
+          <t>Lactarius scrobiculatus</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>Christian</t>
+          <t>(Scop.:Fr.) Fr.</t>
         </is>
       </c>
       <c r="I59" t="inlineStr"/>
@@ -7207,10 +7207,10 @@
         </is>
       </c>
       <c r="Q59" t="n">
-        <v>446675</v>
+        <v>446605</v>
       </c>
       <c r="R59" t="n">
-        <v>7032593</v>
+        <v>7032710</v>
       </c>
       <c r="S59" t="n">
         <v>10</v>
@@ -7272,7 +7272,7 @@
         <v>112213235</v>
       </c>
       <c r="B60" t="n">
-        <v>90821</v>
+        <v>90835</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
@@ -7374,7 +7374,7 @@
         <v>112110532</v>
       </c>
       <c r="B61" t="n">
-        <v>88136</v>
+        <v>88150</v>
       </c>
       <c r="C61" t="inlineStr">
         <is>

--- a/artfynd/A 63628-2020.xlsx
+++ b/artfynd/A 63628-2020.xlsx
@@ -6429,10 +6429,10 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>112104863</v>
+        <v>112111386</v>
       </c>
       <c r="B52" t="n">
-        <v>90799</v>
+        <v>89094</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
@@ -6441,25 +6441,25 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E52" t="n">
-        <v>1968</v>
+        <v>256335</v>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Grantaggsvamp</t>
+          <t>Taggfingersvamp</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>Bankera violascens</t>
+          <t>Ramaria karstenii</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein. : Fr.) Pouzar</t>
+          <t>(Sacc. &amp; P.Syd.) Corner</t>
         </is>
       </c>
       <c r="I52" t="inlineStr"/>
@@ -6468,14 +6468,14 @@
       <c r="N52" t="inlineStr"/>
       <c r="P52" t="inlineStr">
         <is>
-          <t>Hökån (Hökån), Jmt</t>
+          <t>Renkullmyren (Renkullmyren), Jmt</t>
         </is>
       </c>
       <c r="Q52" t="n">
-        <v>446637</v>
+        <v>446734</v>
       </c>
       <c r="R52" t="n">
-        <v>7032524</v>
+        <v>7032709</v>
       </c>
       <c r="S52" t="n">
         <v>10</v>
@@ -6535,10 +6535,10 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>112111388</v>
+        <v>112111398</v>
       </c>
       <c r="B53" t="n">
-        <v>89104</v>
+        <v>89114</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
@@ -6547,25 +6547,25 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E53" t="n">
-        <v>5747</v>
+        <v>5754</v>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Läderdoftande fingersvamp</t>
+          <t>Gultoppig fingersvamp</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>Ramaria safraniolens</t>
+          <t>Ramaria testaceoflava</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>Christian</t>
+          <t>(Bres.) Corner</t>
         </is>
       </c>
       <c r="I53" t="inlineStr"/>
@@ -6578,10 +6578,10 @@
         </is>
       </c>
       <c r="Q53" t="n">
-        <v>446734</v>
+        <v>446740</v>
       </c>
       <c r="R53" t="n">
-        <v>7032709</v>
+        <v>7032705</v>
       </c>
       <c r="S53" t="n">
         <v>10</v>
@@ -6641,10 +6641,10 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>112111386</v>
+        <v>112104863</v>
       </c>
       <c r="B54" t="n">
-        <v>89094</v>
+        <v>90799</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
@@ -6653,25 +6653,25 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E54" t="n">
-        <v>256335</v>
+        <v>1968</v>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Taggfingersvamp</t>
+          <t>Grantaggsvamp</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>Ramaria karstenii</t>
+          <t>Bankera violascens</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>(Sacc. &amp; P.Syd.) Corner</t>
+          <t>(Alb. &amp; Schwein. : Fr.) Pouzar</t>
         </is>
       </c>
       <c r="I54" t="inlineStr"/>
@@ -6680,14 +6680,14 @@
       <c r="N54" t="inlineStr"/>
       <c r="P54" t="inlineStr">
         <is>
-          <t>Renkullmyren (Renkullmyren), Jmt</t>
+          <t>Hökån (Hökån), Jmt</t>
         </is>
       </c>
       <c r="Q54" t="n">
-        <v>446734</v>
+        <v>446637</v>
       </c>
       <c r="R54" t="n">
-        <v>7032709</v>
+        <v>7032524</v>
       </c>
       <c r="S54" t="n">
         <v>10</v>
@@ -6747,10 +6747,10 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>112105381</v>
+        <v>112111388</v>
       </c>
       <c r="B55" t="n">
-        <v>89047</v>
+        <v>89104</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
@@ -6759,25 +6759,25 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E55" t="n">
-        <v>3286</v>
+        <v>5747</v>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Flattoppad klubbsvamp</t>
+          <t>Läderdoftande fingersvamp</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>Clavariadelphus truncatus</t>
+          <t>Ramaria safraniolens</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>(Quél.) Donk</t>
+          <t>Christian</t>
         </is>
       </c>
       <c r="I55" t="inlineStr"/>
@@ -6786,14 +6786,14 @@
       <c r="N55" t="inlineStr"/>
       <c r="P55" t="inlineStr">
         <is>
-          <t>Landverktjärnen (Landverktjärnen), Jmt</t>
+          <t>Renkullmyren (Renkullmyren), Jmt</t>
         </is>
       </c>
       <c r="Q55" t="n">
-        <v>446564</v>
+        <v>446734</v>
       </c>
       <c r="R55" t="n">
-        <v>7032716</v>
+        <v>7032709</v>
       </c>
       <c r="S55" t="n">
         <v>10</v>
@@ -6853,10 +6853,10 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>112111378</v>
+        <v>112105381</v>
       </c>
       <c r="B56" t="n">
-        <v>83086</v>
+        <v>89047</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
@@ -6869,21 +6869,21 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>5589</v>
+        <v>3286</v>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Rödbrun klubbdyna</t>
+          <t>Flattoppad klubbsvamp</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>Trichoderma nybergianum</t>
+          <t>Clavariadelphus truncatus</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>(T.Ulvinen &amp; H.L.Chamb.) Jaklitsch &amp; Voglmayr</t>
+          <t>(Quél.) Donk</t>
         </is>
       </c>
       <c r="I56" t="inlineStr"/>
@@ -6892,14 +6892,14 @@
       <c r="N56" t="inlineStr"/>
       <c r="P56" t="inlineStr">
         <is>
-          <t>Renkullmyren (Renkullmyren), Jmt</t>
+          <t>Landverktjärnen (Landverktjärnen), Jmt</t>
         </is>
       </c>
       <c r="Q56" t="n">
-        <v>446760</v>
+        <v>446564</v>
       </c>
       <c r="R56" t="n">
-        <v>7032715</v>
+        <v>7032716</v>
       </c>
       <c r="S56" t="n">
         <v>10</v>
@@ -6959,10 +6959,10 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>112111398</v>
+        <v>112111378</v>
       </c>
       <c r="B57" t="n">
-        <v>89114</v>
+        <v>83086</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
@@ -6975,21 +6975,21 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>5754</v>
+        <v>5589</v>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Gultoppig fingersvamp</t>
+          <t>Rödbrun klubbdyna</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>Ramaria testaceoflava</t>
+          <t>Trichoderma nybergianum</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>(Bres.) Corner</t>
+          <t>(T.Ulvinen &amp; H.L.Chamb.) Jaklitsch &amp; Voglmayr</t>
         </is>
       </c>
       <c r="I57" t="inlineStr"/>
@@ -7002,10 +7002,10 @@
         </is>
       </c>
       <c r="Q57" t="n">
-        <v>446740</v>
+        <v>446760</v>
       </c>
       <c r="R57" t="n">
-        <v>7032705</v>
+        <v>7032715</v>
       </c>
       <c r="S57" t="n">
         <v>10</v>
@@ -7167,10 +7167,10 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>112213255</v>
+        <v>112213235</v>
       </c>
       <c r="B59" t="n">
-        <v>90480</v>
+        <v>90835</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
@@ -7183,21 +7183,21 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>4769</v>
+        <v>5964</v>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Svavelriska</t>
+          <t>Fjällig taggsvamp s.str.</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>Lactarius scrobiculatus</t>
+          <t>Sarcodon imbricatus s.str.</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) Fr.</t>
+          <t>(L.:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I59" t="inlineStr"/>
@@ -7207,10 +7207,10 @@
         </is>
       </c>
       <c r="Q59" t="n">
-        <v>446605</v>
+        <v>446568</v>
       </c>
       <c r="R59" t="n">
-        <v>7032710</v>
+        <v>7032711</v>
       </c>
       <c r="S59" t="n">
         <v>10</v>
@@ -7269,10 +7269,10 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>112213235</v>
+        <v>112213255</v>
       </c>
       <c r="B60" t="n">
-        <v>90835</v>
+        <v>90480</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
@@ -7285,21 +7285,21 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>5964</v>
+        <v>4769</v>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Fjällig taggsvamp s.str.</t>
+          <t>Svavelriska</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>Sarcodon imbricatus s.str.</t>
+          <t>Lactarius scrobiculatus</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>(L.:Fr.) P.Karst.</t>
+          <t>(Scop.:Fr.) Fr.</t>
         </is>
       </c>
       <c r="I60" t="inlineStr"/>
@@ -7309,10 +7309,10 @@
         </is>
       </c>
       <c r="Q60" t="n">
-        <v>446568</v>
+        <v>446605</v>
       </c>
       <c r="R60" t="n">
-        <v>7032711</v>
+        <v>7032710</v>
       </c>
       <c r="S60" t="n">
         <v>10</v>
